--- a/data/nuc_cell_seg_delivery_20170210/3500000468.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/3500000468.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="0" windowWidth="27465" windowHeight="16155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
     <t>3500000468_100X_20170124_E05_P01.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;</t>
+    <t>1;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E05_P01.czi_nucWholeIndexSegScale.tiff</t>
@@ -221,7 +221,7 @@
     <t>3500000468_100X_20170124_E05_P02.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;04;</t>
+    <t>1;2;3;4;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E05_P02.czi_nucWholeIndexSegScale.tiff</t>
@@ -233,7 +233,7 @@
     <t>3500000468_100X_20170124_E05_P03.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;</t>
+    <t>1;3;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E05_P03.czi_nucWholeIndexSegScale.tiff</t>
@@ -245,7 +245,7 @@
     <t>3500000468_100X_20170124_E05_P04.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;04;05;07;</t>
+    <t>1;3;4;5;7;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E05_P04.czi_nucWholeIndexSegScale.tiff</t>
@@ -257,7 +257,7 @@
     <t>3500000468_100X_20170124_E06_P05.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;</t>
+    <t>1;2;3;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E06_P05.czi_nucWholeIndexSegScale.tiff</t>
@@ -287,7 +287,7 @@
     <t>3500000468_100X_20170124_E07_P09.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;</t>
+    <t>1;2;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E07_P09.czi_nucWholeIndexSegScale.tiff</t>
@@ -317,7 +317,7 @@
     <t>3500000468_100X_20170124_E07_P12.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;05;</t>
+    <t>1;3;5;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E07_P12.czi_nucWholeIndexSegScale.tiff</t>
@@ -329,7 +329,7 @@
     <t>3500000468_100X_20170124_E07_P13.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;05;</t>
+    <t>1;2;5;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E07_P13.czi_nucWholeIndexSegScale.tiff</t>
@@ -341,7 +341,7 @@
     <t>3500000468_100X_20170124_E07_P15.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;04;05;06;</t>
+    <t>1;2;3;4;5;6;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E07_P15.czi_nucWholeIndexSegScale.tiff</t>
@@ -353,7 +353,7 @@
     <t>3500000468_100X_20170124_E07_P16.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;04;</t>
+    <t>1;2;4;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E07_P16.czi_nucWholeIndexSegScale.tiff</t>
@@ -383,7 +383,7 @@
     <t>3500000468_100X_20170124_E08_P19.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;04;</t>
+    <t>2;4;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E08_P19.czi_nucWholeIndexSegScale.tiff</t>
@@ -395,7 +395,7 @@
     <t>3500000468_100X_20170124_E08_P20.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;</t>
+    <t>2;3;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E08_P20.czi_nucWholeIndexSegScale.tiff</t>
@@ -407,7 +407,7 @@
     <t>3500000468_100X_20170124_E08_P21.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;04;05;</t>
+    <t>1;3;4;5;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E08_P21.czi_nucWholeIndexSegScale.tiff</t>
@@ -419,7 +419,7 @@
     <t>3500000468_100X_20170124_E08_P22.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;04;05;</t>
+    <t>1;4;5;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_E08_P22.czi_nucWholeIndexSegScale.tiff</t>
@@ -440,7 +440,7 @@
     <t>3500000468_100X_20170124_F05_P36.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;04;05;06;07;</t>
+    <t>1;2;4;5;6;7;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_F05_P36.czi_nucWholeIndexSegScale.tiff</t>
@@ -452,7 +452,7 @@
     <t>3500000468_100X_20170124_F05_P38.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;05;07;</t>
+    <t>1;2;3;5;7;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_F05_P38.czi_nucWholeIndexSegScale.tiff</t>
@@ -473,7 +473,7 @@
     <t>3500000468_100X_20170124_F05_P40.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;04;05;06;</t>
+    <t>2;3;4;5;6;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_F05_P40.czi_nucWholeIndexSegScale.tiff</t>
@@ -485,7 +485,7 @@
     <t>3500000468_100X_20170124_F06_P33.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;07;</t>
+    <t>1;2;3;7;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_F06_P33.czi_nucWholeIndexSegScale.tiff</t>
@@ -515,7 +515,7 @@
     <t>3500000468_100X_20170124_F07_P25.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;05;</t>
+    <t>2;5;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_F07_P25.czi_nucWholeIndexSegScale.tiff</t>
@@ -536,7 +536,7 @@
     <t>3500000468_100X_20170124_F07_P27.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;04;05;</t>
+    <t>1;2;3;4;5;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_F07_P27.czi_nucWholeIndexSegScale.tiff</t>
@@ -566,7 +566,7 @@
     <t>3500000468_100X_20170124_F07_P31.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;05;06;</t>
+    <t>1;3;5;6;</t>
   </si>
   <si>
     <t>3500000468_100X_20170124_F07_P31.czi_nucWholeIndexSegScale.tiff</t>
@@ -1114,7 +1114,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>6</v>
@@ -1185,7 +1185,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -1256,7 +1256,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -1327,7 +1327,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -1398,7 +1398,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>6</v>
@@ -1469,7 +1469,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1540,7 +1540,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -1611,7 +1611,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1682,7 +1682,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1753,7 +1753,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -1824,7 +1824,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -1895,7 +1895,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -1966,7 +1966,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -2037,7 +2037,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -2108,7 +2108,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -2179,7 +2179,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -2250,7 +2250,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -2321,7 +2321,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -2392,7 +2392,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>6</v>
@@ -2463,7 +2463,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -2534,7 +2534,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -2605,7 +2605,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -2676,7 +2676,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -2747,7 +2747,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>6</v>
@@ -2818,7 +2818,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -2889,7 +2889,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -2960,7 +2960,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>6</v>
@@ -3031,7 +3031,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -3102,7 +3102,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>6</v>
@@ -3173,7 +3173,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>6</v>
@@ -3244,7 +3244,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>6</v>
@@ -3315,7 +3315,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>6</v>
@@ -3386,7 +3386,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>6</v>
@@ -3457,7 +3457,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -3528,7 +3528,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>6</v>
